--- a/biology/Zoologie/Heterophrynus_alces/Heterophrynus_alces.xlsx
+++ b/biology/Zoologie/Heterophrynus_alces/Heterophrynus_alces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterophrynus alces est une espèce d'amblypyges de la famille des Phrynidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Guyana, au Suriname, en Guyane et au Brésil en Amapá[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Guyana, au Suriname, en Guyane et au Brésil en Amapá,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal vit dans différents endroits à condition qu'ils soient sombres, humides et près du sol, grotte, tronc d'arbre etc.
 </t>
@@ -573,9 +589,11 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se réunit souvent en grand groupes de plus de 1000 individus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se réunit souvent en grand groupes de plus de 1000 individus.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 22 mm[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 22 mm.
 Cette espèces est noire et possède huit pattes épineuses.
 </t>
         </is>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1902 : A contribution to the systematics of the. Pedipalpi. Annals and Magazine of Natural History, sér. 7, vol. 9, p. 157-165 (texte intégral).</t>
         </is>
